--- a/Usability Evaluation/Fall Term/Retrieved Data/Usability Combined Data November 22, 2018.xlsx
+++ b/Usability Evaluation/Fall Term/Retrieved Data/Usability Combined Data November 22, 2018.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Combined Usability" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 1-Graphs, Tables, Charts" sheetId="3" r:id="rId2"/>
+    <sheet name="Part 2-Graphs, Tables, Charts" sheetId="5" r:id="rId3"/>
+    <sheet name="Part 3-Graphs, Tables, Charts" sheetId="6" r:id="rId4"/>
+    <sheet name="Part 4-Graphs, Tables, Charts" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="210">
   <si>
     <t>#</t>
   </si>
@@ -67,12 +70,6 @@
     <t>Gender</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Age range</t>
   </si>
   <si>
@@ -485,6 +482,177 @@
   </si>
   <si>
     <t xml:space="preserve">Bigger icons. </t>
+  </si>
+  <si>
+    <t>Position Title</t>
+  </si>
+  <si>
+    <t>Business Analysist</t>
+  </si>
+  <si>
+    <t>Position Type</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Years with eHealth</t>
+  </si>
+  <si>
+    <t>Technical Skill</t>
+  </si>
+  <si>
+    <t>Highest Eductation</t>
+  </si>
+  <si>
+    <t>Knowledgable</t>
+  </si>
+  <si>
+    <t>Very Knowledgable</t>
+  </si>
+  <si>
+    <t>Some Post Secondary</t>
+  </si>
+  <si>
+    <t>Bachaelor's</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Age Range</t>
+  </si>
+  <si>
+    <t>Will Use eIDEAS</t>
+  </si>
+  <si>
+    <t>Yes if Useful</t>
+  </si>
+  <si>
+    <t>Suspected Usage</t>
+  </si>
+  <si>
+    <t>Not Often</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Prefer Not to Say</t>
+  </si>
+  <si>
+    <t>High School Diploma</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>PHD</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Unsure</t>
+  </si>
+  <si>
+    <t>Registering</t>
+  </si>
+  <si>
+    <t>No Concerns</t>
+  </si>
+  <si>
+    <t>Many Concerns</t>
+  </si>
+  <si>
+    <t>Needed Help</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t>Logging Out</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Navigate to Idea Page</t>
+  </si>
+  <si>
+    <t>Create Idea</t>
+  </si>
+  <si>
+    <t>See New Idea</t>
+  </si>
+  <si>
+    <t>Change Idea Status</t>
+  </si>
+  <si>
+    <t>Edit Idea</t>
+  </si>
+  <si>
+    <t>Filter Ideas</t>
+  </si>
+  <si>
+    <t>Comment on Idea</t>
+  </si>
+  <si>
+    <t>Like Idea</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
+  </si>
+  <si>
+    <t>Delete Idea</t>
+  </si>
+  <si>
+    <t>Accept Idea</t>
+  </si>
+  <si>
+    <t>Decline Idea</t>
+  </si>
+  <si>
+    <t>Park Idea</t>
+  </si>
+  <si>
+    <t>You would use eIDEAS (0 never, 10 all the time!)</t>
+  </si>
+  <si>
+    <t>Would you recommend eIDEAS to other employees?</t>
+  </si>
+  <si>
+    <t>I understand what a pending idea is (0 do not understand, 10 understand)</t>
+  </si>
+  <si>
+    <t>I understand what a planned idea is (0 do not understand, 10 understand)</t>
+  </si>
+  <si>
+    <t>I understand what the status do means (0 do not understand, 10 understand)</t>
+  </si>
+  <si>
+    <t>I understand what the status check means  (0 do not understand, 10 understand)</t>
+  </si>
+  <si>
+    <t>I understand what the status act means (0 do not understand, 10 understand)</t>
+  </si>
+  <si>
+    <t>I understand what a parked idea is (0 do not understand, 10 understand)</t>
+  </si>
+  <si>
+    <t>I understand what a abandoned idea is (0 do not understand, 10 understand)</t>
   </si>
 </sst>
 </file>
@@ -545,7 +713,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,8 +744,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -714,8 +906,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -769,8 +1013,110 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -972,8 +1318,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1000,6 +1364,57 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1026,11 +1441,5407 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Position Title</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$C$7:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Business Analysist</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manager, Contracts, and Procurement</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Knowledge Management</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$D$7:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Will Use eIDEAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$C$7:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Yes if Useful</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Unsure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$D$7:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2125144120"/>
+        <c:axId val="-2107585560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2125144120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107585560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107585560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125144120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Suspected Usage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$H$5:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Often</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sometimes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Not Often</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rarely</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Never</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prefer Not to Say</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2092754696"/>
+        <c:axId val="-2091933576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2092754696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091933576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2091933576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092754696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Registering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$C$3:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2124924760"/>
+        <c:axId val="2124880232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2124924760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124880232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2124880232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124924760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logging Out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$H$3:$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2106876744"/>
+        <c:axId val="-2106875336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2106876744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2106875336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2106875336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2106876744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forgot Password</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$M$3:$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$3:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2124035304"/>
+        <c:axId val="2123714184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2124035304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123714184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123714184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124035304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Log In</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$30:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2089381272"/>
+        <c:axId val="-2089379864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2089381272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089379864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2089379864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089381272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manage Account</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$H$30:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$30:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2091994792"/>
+        <c:axId val="-2091981896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2091994792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091981896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2091981896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091994792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Navigate to Idea Page</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$M$30:$M$34</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$30:$N$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2092535304"/>
+        <c:axId val="-2122543736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2092535304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122543736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2122543736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092535304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Create Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$C$57:$C$62</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$57:$D$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2091817112"/>
+        <c:axId val="-2090904888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2091817112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090904888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090904888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091817112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>See New Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$H$57:$H$62</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$57:$I$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2093006440"/>
+        <c:axId val="-2093898440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2093006440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2093898440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2093898440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2093006440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Position Type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$H$7:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Staff Member</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Team Lead</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manager</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$I$7:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Change Idea Status</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$M$57:$M$62</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$57:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2089718968"/>
+        <c:axId val="-2089679480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2089718968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089679480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2089679480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089718968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Edit Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$C$87:$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$87:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2096185048"/>
+        <c:axId val="-2111525848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2096185048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111525848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2111525848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096185048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filter Ideas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$H$87:$H$92</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$87:$I$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2090478344"/>
+        <c:axId val="-2090545832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2090478344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090545832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090545832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090478344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Comment on Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$M$87:$M$92</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$87:$N$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2090046712"/>
+        <c:axId val="-2090045304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2090046712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090045304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090045304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090046712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Like Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$C$116:$C$121</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$116:$D$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2092209416"/>
+        <c:axId val="-2107882856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2092209416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107882856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107882856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092209416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Subscribe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$H$116:$H$121</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$116:$I$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2070999416"/>
+        <c:axId val="-2070998008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2070999416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070998008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2070998008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070999416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$115</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delete Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$M$116:$M$121</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$116:$N$121</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2090212648"/>
+        <c:axId val="-2123042600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2090212648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123042600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2123042600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090212648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accept Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$C$145:$C$150</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$D$145:$D$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2091062104"/>
+        <c:axId val="-2089875272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2091062104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2089875272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2089875272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091062104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Decline Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$H$145:$H$150</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$I$145:$I$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2123387656"/>
+        <c:axId val="-2090706360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2123387656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090706360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090706360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123387656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$144</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Park Idea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$M$145:$M$150</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>No Concerns</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Some Concerns</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Many Concerns</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Needed Help</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Not Completed</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 3-Graphs, Tables, Charts'!$N$145:$N$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2111234536"/>
+        <c:axId val="-2093947848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2111234536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2093947848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2093947848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111234536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Team</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$M$7:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Business Programs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Knowledge Management</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$N$7:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Years with eHealth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$C$31:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$D$31:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2135476680"/>
+        <c:axId val="-2122510056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2135476680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122510056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2122510056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Years</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2135476680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gender</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$C$56:$C$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Female</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$D$56:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$I$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Age Range</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$H$56:$H$57</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&gt;45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26-35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$I$56:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Technical Skill</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$H$31:$H$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Very Knowledgable</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Knowledgable</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Average</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Low</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Prefer Not to Say</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$I$31:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2092811432"/>
+        <c:axId val="-2092811896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2092811432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092811896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2092811896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092811432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$S$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highest Eductation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$R$38:$R$44</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Some Post Secondary</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bachaelor's</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>High School Diploma</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Masters</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PHD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Prefer Not to Say</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 1-Graphs, Tables, Charts'!$S$38:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2064071064"/>
+        <c:axId val="-2124747080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2064071064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124747080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124747080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2064071064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="134"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="34"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Team</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$M$7:$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Business Programs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Knowledge Management</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 2-Graphs, Tables, Charts'!$N$7:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1357,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1393,7 +7204,7 @@
     <row r="3" spans="2:7" ht="18" customHeight="1">
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
@@ -1408,16 +7219,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="25" customHeight="1">
@@ -1428,13 +7239,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>8</v>
@@ -1445,19 +7256,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="25" customHeight="1">
@@ -1468,16 +7279,16 @@
         <v>9</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="25" customHeight="1">
@@ -1491,10 +7302,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="23" t="s">
         <v>11</v>
@@ -1508,16 +7319,16 @@
         <v>13</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="25" customHeight="1">
@@ -1528,16 +7339,16 @@
         <v>14</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="25" customHeight="1" thickBot="1">
@@ -1545,25 +7356,25 @@
         <v>8</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1">
       <c r="B12" s="30"/>
       <c r="C12" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
@@ -1575,19 +7386,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="25" customHeight="1">
@@ -1595,19 +7406,19 @@
         <v>2</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="60" customHeight="1">
@@ -1615,19 +7426,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="60" customHeight="1">
@@ -1635,19 +7446,19 @@
         <v>4</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="65" customHeight="1">
@@ -1655,19 +7466,19 @@
         <v>5</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="25" customHeight="1" thickBot="1">
@@ -1675,7 +7486,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>12</v>
@@ -1687,13 +7498,13 @@
         <v>12</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18">
       <c r="B19" s="30"/>
       <c r="C19" s="31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="33"/>
@@ -1703,7 +7514,7 @@
     <row r="20" spans="2:7" ht="17" customHeight="1">
       <c r="B20" s="10"/>
       <c r="C20" s="43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="13"/>
@@ -1715,37 +7526,37 @@
         <v>1</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="25" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="25" customHeight="1">
@@ -1753,25 +7564,25 @@
         <v>2</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G23" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="25" customHeight="1">
       <c r="B24" s="46"/>
       <c r="C24" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="48" t="s">
         <v>12</v>
@@ -1791,28 +7602,28 @@
         <v>3</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="25" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>12</v>
@@ -1829,43 +7640,43 @@
         <v>4</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="48" t="s">
-        <v>108</v>
-      </c>
       <c r="G27" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="25" customHeight="1">
       <c r="B28" s="46"/>
       <c r="C28" s="47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" s="49" t="s">
         <v>12</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="25" customHeight="1">
       <c r="B29" s="52"/>
       <c r="C29" s="43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
@@ -1877,37 +7688,37 @@
         <v>1</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="G30" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="50" customHeight="1">
       <c r="B31" s="5"/>
       <c r="C31" s="44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1">
@@ -1915,25 +7726,25 @@
         <v>2</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="25" customHeight="1">
       <c r="B33" s="6"/>
       <c r="C33" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>12</v>
@@ -1953,31 +7764,31 @@
         <v>3</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="25" customHeight="1">
       <c r="B35" s="5"/>
       <c r="C35" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>12</v>
@@ -1989,7 +7800,7 @@
     <row r="36" spans="2:7" ht="17" customHeight="1">
       <c r="B36" s="10"/>
       <c r="C36" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
@@ -2001,37 +7812,37 @@
         <v>1</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="35" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="25" customHeight="1">
@@ -2039,25 +7850,25 @@
         <v>2</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="25" customHeight="1">
       <c r="B40" s="6"/>
       <c r="C40" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>12</v>
@@ -2069,7 +7880,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="25" customHeight="1">
@@ -2077,37 +7888,37 @@
         <v>3</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="F41" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="35" customHeight="1">
       <c r="B42" s="5"/>
       <c r="C42" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="25" customHeight="1">
@@ -2115,34 +7926,34 @@
         <v>4</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F43" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="25" customHeight="1">
       <c r="B44" s="6"/>
       <c r="C44" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G44" s="20" t="s">
         <v>12</v>
@@ -2153,31 +7964,31 @@
         <v>5</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="25" customHeight="1">
       <c r="B46" s="5"/>
       <c r="C46" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>12</v>
@@ -2191,37 +8002,37 @@
         <v>6</v>
       </c>
       <c r="C47" s="54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F47" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="20" t="s">
         <v>104</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="50" customHeight="1">
       <c r="B48" s="6"/>
       <c r="C48" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="25" customHeight="1">
@@ -2229,37 +8040,37 @@
         <v>7</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="F49" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="50" customHeight="1">
       <c r="B50" s="5"/>
       <c r="C50" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="25" customHeight="1">
@@ -2267,37 +8078,37 @@
         <v>8</v>
       </c>
       <c r="C51" s="54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D51" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="21" t="s">
-        <v>108</v>
-      </c>
       <c r="F51" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G51" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="25" customHeight="1">
       <c r="B52" s="6"/>
       <c r="C52" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="25" customHeight="1">
@@ -2305,43 +8116,43 @@
         <v>9</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F53" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="60" customHeight="1">
       <c r="B54" s="5"/>
       <c r="C54" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="17" customHeight="1">
       <c r="B55" s="55"/>
       <c r="C55" s="43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="13"/>
@@ -2353,37 +8164,37 @@
         <v>1</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E56" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="G56" s="15" t="s">
         <v>106</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="25" customHeight="1">
       <c r="B57" s="5"/>
       <c r="C57" s="44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="25" customHeight="1">
@@ -2391,37 +8202,37 @@
         <v>2</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="25" customHeight="1">
       <c r="B59" s="6"/>
       <c r="C59" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="25" customHeight="1">
@@ -2429,43 +8240,43 @@
         <v>3</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="40" customHeight="1" thickBot="1">
       <c r="B61" s="56"/>
       <c r="C61" s="57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F61" s="68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="18">
       <c r="B62" s="60"/>
       <c r="C62" s="61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62" s="62"/>
       <c r="E62" s="63"/>
@@ -2475,7 +8286,7 @@
     <row r="63" spans="2:7" ht="17" customHeight="1">
       <c r="B63" s="10"/>
       <c r="C63" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="13"/>
@@ -2487,19 +8298,19 @@
         <v>1</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="25" customHeight="1">
@@ -2507,19 +8318,19 @@
         <v>2</v>
       </c>
       <c r="C65" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="25" customHeight="1">
@@ -2527,25 +8338,25 @@
         <v>3</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="17" customHeight="1">
       <c r="B67" s="10"/>
       <c r="C67" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="13"/>
@@ -2557,10 +8368,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E68" s="16">
         <v>6</v>
@@ -2577,10 +8388,10 @@
         <v>2</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E69" s="64">
         <v>4</v>
@@ -2597,10 +8408,10 @@
         <v>3</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E70" s="16">
         <v>3</v>
@@ -2617,10 +8428,10 @@
         <v>4</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E71" s="64">
         <v>9</v>
@@ -2637,10 +8448,10 @@
         <v>5</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E72" s="34">
         <v>7</v>
@@ -2656,9 +8467,11 @@
       <c r="B73" s="6">
         <v>6</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="54" t="s">
+        <v>201</v>
+      </c>
       <c r="D73" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E73" s="21">
         <v>5</v>
@@ -2674,27 +8487,31 @@
       <c r="B74" s="5">
         <v>7</v>
       </c>
-      <c r="C74" s="14"/>
+      <c r="C74" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="D74" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="25" customHeight="1">
       <c r="B75" s="6">
         <v>8</v>
       </c>
-      <c r="C75" s="19"/>
+      <c r="C75" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="D75" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E75" s="64">
         <v>7</v>
@@ -2710,9 +8527,11 @@
       <c r="B76" s="5">
         <v>9</v>
       </c>
-      <c r="C76" s="14"/>
+      <c r="C76" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="D76" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E76" s="16">
         <v>9</v>
@@ -2728,9 +8547,11 @@
       <c r="B77" s="6">
         <v>10</v>
       </c>
-      <c r="C77" s="19"/>
+      <c r="C77" s="19" t="s">
+        <v>205</v>
+      </c>
       <c r="D77" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E77" s="64">
         <v>9</v>
@@ -2746,9 +8567,11 @@
       <c r="B78" s="5">
         <v>11</v>
       </c>
-      <c r="C78" s="7"/>
+      <c r="C78" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="D78" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E78" s="34">
         <v>9</v>
@@ -2764,9 +8587,11 @@
       <c r="B79" s="6">
         <v>12</v>
       </c>
-      <c r="C79" s="54"/>
+      <c r="C79" s="54" t="s">
+        <v>207</v>
+      </c>
       <c r="D79" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E79" s="21">
         <v>9</v>
@@ -2782,9 +8607,11 @@
       <c r="B80" s="6">
         <v>13</v>
       </c>
-      <c r="C80" s="19"/>
+      <c r="C80" s="19" t="s">
+        <v>208</v>
+      </c>
       <c r="D80" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" s="64">
         <v>9</v>
@@ -2800,9 +8627,11 @@
       <c r="B81" s="5">
         <v>14</v>
       </c>
-      <c r="C81" s="7"/>
+      <c r="C81" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="D81" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E81" s="34">
         <v>9</v>
@@ -2819,19 +8648,19 @@
         <v>15</v>
       </c>
       <c r="C82" s="54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E82" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="80" customHeight="1">
@@ -2839,19 +8668,19 @@
         <v>16</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="70" customHeight="1" thickBot="1">
@@ -2860,19 +8689,19 @@
         <v>17</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E84" s="66" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1">
@@ -3896,6 +9725,1223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:S57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:14">
+      <c r="D6" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="70">
+        <v>1</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="70">
+        <v>2</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="70">
+        <v>1</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="70">
+        <v>1</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="70">
+        <v>1</v>
+      </c>
+      <c r="H9" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="70">
+        <v>1</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="D30" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="69">
+        <v>1</v>
+      </c>
+      <c r="D31" s="70">
+        <v>15</v>
+      </c>
+      <c r="H31" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="I31" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="69">
+        <v>2</v>
+      </c>
+      <c r="D32" s="70">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="I32" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19">
+      <c r="C33" s="69">
+        <v>3</v>
+      </c>
+      <c r="D33" s="70">
+        <v>6</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19">
+      <c r="C34" s="69">
+        <v>4</v>
+      </c>
+      <c r="D34" s="70">
+        <v>3</v>
+      </c>
+      <c r="H34" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:19">
+      <c r="H35" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:19">
+      <c r="R37" s="2"/>
+      <c r="S37" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="3:19">
+      <c r="R38" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="S38" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:19">
+      <c r="R39" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="S39" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:19">
+      <c r="R40" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="S40" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19">
+      <c r="R41" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="S41" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19">
+      <c r="R42" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="S42" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19">
+      <c r="R43" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="S43" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19">
+      <c r="R44" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="S44" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="D55" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="71" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="70">
+        <v>3</v>
+      </c>
+      <c r="H56" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="70">
+        <v>1</v>
+      </c>
+      <c r="H57" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="72">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:14">
+      <c r="I4" s="69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="H5" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="D6" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="70">
+        <v>2</v>
+      </c>
+      <c r="N6" s="69" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="70">
+        <v>3</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="70">
+        <v>0</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="70">
+        <v>1</v>
+      </c>
+      <c r="H8" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="70">
+        <v>0</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="70">
+        <v>0</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="I9" s="74">
+        <v>0</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="70">
+        <v>0</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" s="74">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:N150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="22.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14">
+      <c r="D2" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="70">
+        <v>2</v>
+      </c>
+      <c r="H3" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="70">
+        <v>4</v>
+      </c>
+      <c r="M3" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="70">
+        <v>2</v>
+      </c>
+      <c r="H4" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="70">
+        <v>0</v>
+      </c>
+      <c r="M4" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="70">
+        <v>0</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="70">
+        <v>0</v>
+      </c>
+      <c r="M5" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="70">
+        <v>0</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="70">
+        <v>0</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="70">
+        <v>0</v>
+      </c>
+      <c r="H7" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I7" s="70">
+        <v>0</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="M8" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="D29" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" s="69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="70">
+        <v>1</v>
+      </c>
+      <c r="H30" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="70">
+        <v>4</v>
+      </c>
+      <c r="M30" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="N30" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="70">
+        <v>0</v>
+      </c>
+      <c r="H31" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="70">
+        <v>0</v>
+      </c>
+      <c r="M31" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="N31" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="70">
+        <v>0</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" s="70">
+        <v>0</v>
+      </c>
+      <c r="M32" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="N32" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="70">
+        <v>0</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I33" s="70">
+        <v>0</v>
+      </c>
+      <c r="M33" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N33" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="70">
+        <v>0</v>
+      </c>
+      <c r="H34" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I34" s="70">
+        <v>0</v>
+      </c>
+      <c r="M34" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="N34" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="D56" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="N56" s="69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="C57" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="70">
+        <v>4</v>
+      </c>
+      <c r="H57" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I57" s="70">
+        <v>4</v>
+      </c>
+      <c r="M57" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="N57" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="70">
+        <v>0</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58" s="70">
+        <v>0</v>
+      </c>
+      <c r="M58" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="N58" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="C59" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="70">
+        <v>0</v>
+      </c>
+      <c r="H59" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I59" s="70">
+        <v>0</v>
+      </c>
+      <c r="M59" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="N59" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="C60" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="70">
+        <v>0</v>
+      </c>
+      <c r="H60" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" s="70">
+        <v>0</v>
+      </c>
+      <c r="M60" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N60" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14">
+      <c r="C61" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="70">
+        <v>0</v>
+      </c>
+      <c r="H61" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I61" s="70">
+        <v>0</v>
+      </c>
+      <c r="M61" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="N61" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="C62" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="70">
+        <v>0</v>
+      </c>
+      <c r="H62" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="70">
+        <v>0</v>
+      </c>
+      <c r="M62" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N62" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14">
+      <c r="D86" s="69" t="s">
+        <v>192</v>
+      </c>
+      <c r="I86" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="N86" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14">
+      <c r="C87" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="70">
+        <v>3</v>
+      </c>
+      <c r="H87" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I87" s="70">
+        <v>4</v>
+      </c>
+      <c r="M87" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="N87" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14">
+      <c r="C88" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="70">
+        <v>1</v>
+      </c>
+      <c r="H88" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" s="70">
+        <v>0</v>
+      </c>
+      <c r="M88" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="N88" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14">
+      <c r="C89" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="70">
+        <v>0</v>
+      </c>
+      <c r="H89" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I89" s="70">
+        <v>0</v>
+      </c>
+      <c r="M89" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="N89" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14">
+      <c r="C90" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="70">
+        <v>0</v>
+      </c>
+      <c r="H90" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I90" s="70">
+        <v>0</v>
+      </c>
+      <c r="M90" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N90" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:14">
+      <c r="C91" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="70">
+        <v>0</v>
+      </c>
+      <c r="H91" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I91" s="70">
+        <v>0</v>
+      </c>
+      <c r="M91" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="N91" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="C92" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" s="70">
+        <v>0</v>
+      </c>
+      <c r="H92" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I92" s="70">
+        <v>0</v>
+      </c>
+      <c r="M92" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N92" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14">
+      <c r="D115" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I115" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="N115" s="69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="3:14">
+      <c r="C116" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D116" s="70">
+        <v>2</v>
+      </c>
+      <c r="H116" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I116" s="70">
+        <v>2</v>
+      </c>
+      <c r="M116" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="N116" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="3:14">
+      <c r="C117" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="70">
+        <v>2</v>
+      </c>
+      <c r="H117" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I117" s="70">
+        <v>0</v>
+      </c>
+      <c r="M117" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="N117" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="3:14">
+      <c r="C118" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" s="70">
+        <v>0</v>
+      </c>
+      <c r="H118" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I118" s="70">
+        <v>0</v>
+      </c>
+      <c r="M118" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="N118" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:14">
+      <c r="C119" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" s="70">
+        <v>0</v>
+      </c>
+      <c r="H119" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I119" s="70">
+        <v>0</v>
+      </c>
+      <c r="M119" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N119" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:14">
+      <c r="C120" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D120" s="70">
+        <v>0</v>
+      </c>
+      <c r="H120" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I120" s="70">
+        <v>0</v>
+      </c>
+      <c r="M120" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="N120" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14">
+      <c r="C121" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" s="70">
+        <v>0</v>
+      </c>
+      <c r="H121" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I121" s="70">
+        <v>2</v>
+      </c>
+      <c r="M121" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N121" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="4:14">
+      <c r="D144" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="I144" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="N144" s="69" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14">
+      <c r="C145" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D145" s="70">
+        <v>1</v>
+      </c>
+      <c r="H145" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="I145" s="70">
+        <v>0</v>
+      </c>
+      <c r="M145" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="N145" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:14">
+      <c r="C146" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D146" s="70">
+        <v>1</v>
+      </c>
+      <c r="H146" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I146" s="70">
+        <v>0</v>
+      </c>
+      <c r="M146" s="69" t="s">
+        <v>119</v>
+      </c>
+      <c r="N146" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="3:14">
+      <c r="C147" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D147" s="70">
+        <v>0</v>
+      </c>
+      <c r="H147" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="I147" s="70">
+        <v>0</v>
+      </c>
+      <c r="M147" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="N147" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:14">
+      <c r="C148" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D148" s="70">
+        <v>0</v>
+      </c>
+      <c r="H148" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I148" s="70">
+        <v>0</v>
+      </c>
+      <c r="M148" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="N148" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:14">
+      <c r="C149" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D149" s="70">
+        <v>0</v>
+      </c>
+      <c r="H149" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="I149" s="70">
+        <v>0</v>
+      </c>
+      <c r="M149" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="N149" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:14">
+      <c r="C150" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150" s="70">
+        <v>2</v>
+      </c>
+      <c r="H150" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I150" s="70">
+        <v>4</v>
+      </c>
+      <c r="M150" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N150" s="70">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Usability Evaluation/Fall Term/Retrieved Data/Usability Combined Data November 22, 2018.xlsx
+++ b/Usability Evaluation/Fall Term/Retrieved Data/Usability Combined Data November 22, 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Usability" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="225">
   <si>
     <t>#</t>
   </si>
@@ -653,6 +653,152 @@
   </si>
   <si>
     <t>I understand what a abandoned idea is (0 do not understand, 10 understand)</t>
+  </si>
+  <si>
+    <t>eIDEAS Easy to Use</t>
+  </si>
+  <si>
+    <t>Easy to Navigate</t>
+  </si>
+  <si>
+    <t>Pages Made Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registration/Log In/Out </t>
+  </si>
+  <si>
+    <t>Creating/Working with Ideas</t>
+  </si>
+  <si>
+    <t>Would use eIDEAS</t>
+  </si>
+  <si>
+    <t>Would Recommend</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understands </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Pending</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understands </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Planned</t>
+    </r>
+  </si>
+  <si>
+    <t>I Would Suggest Not to Use</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understands </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understands </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Check </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understands </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Act </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understands </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Parked </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understands </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Abandoned</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -662,7 +808,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -710,6 +856,23 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -959,7 +1122,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1115,8 +1278,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1336,8 +1529,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="185">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1415,6 +1609,21 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1492,6 +1701,21 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1742,6 +1966,7 @@
         <c:axId val="-2107585560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1772,6 +1997,7 @@
         <c:crossAx val="2125144120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1924,6 +2150,7 @@
         <c:axId val="-2091933576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1954,6 +2181,7 @@
         <c:crossAx val="-2092754696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2100,10 +2328,59 @@
         <c:axId val="2124880232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2111,6 +2388,7 @@
         <c:crossAx val="2124924760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2257,10 +2535,59 @@
         <c:axId val="-2106875336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2268,6 +2595,7 @@
         <c:crossAx val="-2106876744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2420,10 +2748,59 @@
         <c:axId val="2123714184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2431,6 +2808,7 @@
         <c:crossAx val="2124035304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2583,10 +2961,59 @@
         <c:axId val="-2089379864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2594,6 +3021,7 @@
         <c:crossAx val="-2089381272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2740,10 +3168,59 @@
         <c:axId val="-2091981896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2751,6 +3228,7 @@
         <c:crossAx val="-2091994792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2897,10 +3375,59 @@
         <c:axId val="-2122543736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2908,6 +3435,7 @@
         <c:crossAx val="-2092535304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3060,10 +3588,30 @@
         <c:axId val="-2090904888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3071,6 +3619,7 @@
         <c:crossAx val="-2091817112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3223,10 +3772,30 @@
         <c:axId val="-2093898440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3234,6 +3803,7 @@
         <c:crossAx val="-2093006440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3497,10 +4067,30 @@
         <c:axId val="-2089679480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3508,6 +4098,7 @@
         <c:crossAx val="-2089718968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3660,10 +4251,30 @@
         <c:axId val="-2111525848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3671,6 +4282,7 @@
         <c:crossAx val="-2096185048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3823,10 +4435,30 @@
         <c:axId val="-2090545832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3834,6 +4466,7 @@
         <c:crossAx val="-2090478344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -3986,10 +4619,30 @@
         <c:axId val="-2090045304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3997,6 +4650,7 @@
         <c:crossAx val="-2090046712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4149,10 +4803,30 @@
         <c:axId val="-2107882856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4160,6 +4834,7 @@
         <c:crossAx val="-2092209416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4312,10 +4987,30 @@
         <c:axId val="-2070998008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4323,6 +5018,7 @@
         <c:crossAx val="-2070999416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4475,10 +5171,35 @@
         <c:axId val="-2123042600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4486,6 +5207,7 @@
         <c:crossAx val="-2090212648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4638,10 +5360,30 @@
         <c:axId val="-2089875272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4649,6 +5391,7 @@
         <c:crossAx val="-2091062104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4801,10 +5544,35 @@
         <c:axId val="-2090706360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Participants</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4812,6 +5580,7 @@
         <c:crossAx val="-2123387656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4964,10 +5733,30 @@
         <c:axId val="-2093947848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4975,6 +5764,7 @@
         <c:crossAx val="-2111234536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5088,6 +5878,1925 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eIDEAS Easy to Use</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$C$3:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2113740568"/>
+        <c:axId val="-2071916712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2113740568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2071916712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2071916712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Very Hard (0) </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>to Very </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Easy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113740568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Easy to Navigate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$H$3:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$3:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2123422936"/>
+        <c:axId val="-2107883256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2123422936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2107883256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2107883256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Very</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Hard (0) to Very Easy (10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123422936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pages Made Sense</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$M$3:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$3:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="2127994632"/>
+        <c:axId val="-2065016456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2127994632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2065016456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2065016456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Complete Sense (0) to Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Sense (10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2127994632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Registration/Log In/Out </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$C$29:$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$29:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2070381064"/>
+        <c:axId val="-2069934792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2070381064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2069934792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2069934792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Very Hard (0)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to Very Easy (10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070381064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Creating/Working with Ideas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$H$29:$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$29:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2053476760"/>
+        <c:axId val="-2052920712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2053476760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2052920712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2052920712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Very Hard (0) to Very Easy (10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053476760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Would use eIDEAS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$M$29:$M$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$29:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2053860888"/>
+        <c:axId val="-2053467576"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2053860888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053467576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2053467576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Never</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (0) to All the Time (10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053860888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Would Recommend</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$C$55:$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maybe</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>I Would Suggest Not to Use</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$55:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2049725560"/>
+        <c:axId val="-2050154328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2049725560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2050154328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2050154328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Participants</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049725560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Understands Pending</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$H$55:$H$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$55:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2094788440"/>
+        <c:axId val="-2070594712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2094788440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070594712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2070594712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Do Not</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Understand (0) to Understand (10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2094788440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Understands Planned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$M$55:$M$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$55:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2049248664"/>
+        <c:axId val="-2049247256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2049248664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049247256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2049247256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Do Not Understand (0) to Understand (10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049248664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Understands Do Status</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$C$81:$C$84</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$81:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2064682728"/>
+        <c:axId val="-2065234392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2064682728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2065234392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2065234392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Do Not Understand (0) to Understand (10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2064682728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5272,6 +7981,771 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Understands Act Status</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$M$81:$M$84</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$N$81:$N$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2055174184"/>
+        <c:axId val="-2063661528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2055174184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2063661528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2063661528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Do</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Not Understand (0) to Understand (10)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2055174184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Understands Check Status</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$H$81:$H$84</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$81:$I$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2051268824"/>
+        <c:axId val="-2090753640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2051268824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Partiicipant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2090753640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2090753640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Do Not Understand (0) to Understand (10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2051268824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Understands Parked </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$C$107:$C$110</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$D$107:$D$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2091001288"/>
+        <c:axId val="-2048779496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2091001288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2048779496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2048779496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Do Not Understand (0) to Understand (10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2091001288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Understands Abandoned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$H$107:$H$110</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Part 4-Graphs, Tables, Charts'!$I$107:$I$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="40"/>
+        <c:axId val="-2070789880"/>
+        <c:axId val="-2049115512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2070789880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Participant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2049115512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2049115512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Do Not Understand (0) to Understand (10)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2070789880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -5614,6 +9088,7 @@
         <c:axId val="-2092811896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5644,6 +9119,7 @@
         <c:crossAx val="-2092811432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -5802,6 +9278,7 @@
         <c:axId val="-2124747080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5832,6 +9309,7 @@
         <c:crossAx val="2064071064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -6844,6 +10322,431 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7168,8 +11071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G975"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -9728,7 +13631,7 @@
   <dimension ref="C6:S57"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10016,7 +13919,7 @@
   <dimension ref="C4:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10147,10 +14050,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:N150"/>
+  <dimension ref="C2:N176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="K148" sqref="K148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10928,6 +14831,9 @@
         <v>3</v>
       </c>
     </row>
+    <row r="176" spans="3:3" ht="14" customHeight="1">
+      <c r="C176" s="75"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10942,13 +14848,456 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:N110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
+    <col min="13" max="14" width="20.83203125" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:14">
+      <c r="D2" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" s="69">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70">
+        <v>6</v>
+      </c>
+      <c r="H3" s="69">
+        <v>1</v>
+      </c>
+      <c r="I3" s="70">
+        <v>4</v>
+      </c>
+      <c r="M3" s="69">
+        <v>1</v>
+      </c>
+      <c r="N3" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="69">
+        <v>2</v>
+      </c>
+      <c r="D4" s="70">
+        <v>9</v>
+      </c>
+      <c r="H4" s="69">
+        <v>2</v>
+      </c>
+      <c r="I4" s="70">
+        <v>9</v>
+      </c>
+      <c r="M4" s="69">
+        <v>2</v>
+      </c>
+      <c r="N4" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="69">
+        <v>3</v>
+      </c>
+      <c r="D5" s="70">
+        <v>9</v>
+      </c>
+      <c r="H5" s="69">
+        <v>3</v>
+      </c>
+      <c r="I5" s="70">
+        <v>9</v>
+      </c>
+      <c r="M5" s="69">
+        <v>3</v>
+      </c>
+      <c r="N5" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="70">
+        <v>8</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="70">
+        <v>7.33</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="D28" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="N28" s="69" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="69">
+        <v>1</v>
+      </c>
+      <c r="D29" s="70">
+        <v>9</v>
+      </c>
+      <c r="H29" s="69">
+        <v>1</v>
+      </c>
+      <c r="I29" s="70">
+        <v>7</v>
+      </c>
+      <c r="M29" s="69">
+        <v>1</v>
+      </c>
+      <c r="N29" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="69">
+        <v>2</v>
+      </c>
+      <c r="D30" s="70">
+        <v>9</v>
+      </c>
+      <c r="H30" s="69">
+        <v>2</v>
+      </c>
+      <c r="I30" s="70">
+        <v>9</v>
+      </c>
+      <c r="M30" s="69">
+        <v>2</v>
+      </c>
+      <c r="N30" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="69">
+        <v>3</v>
+      </c>
+      <c r="D31" s="70">
+        <v>9</v>
+      </c>
+      <c r="H31" s="69">
+        <v>3</v>
+      </c>
+      <c r="I31" s="70">
+        <v>9</v>
+      </c>
+      <c r="M31" s="69">
+        <v>3</v>
+      </c>
+      <c r="N31" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="70">
+        <v>9</v>
+      </c>
+      <c r="H32" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="70">
+        <v>8.33</v>
+      </c>
+      <c r="M32" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="D54" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="N54" s="69" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="C55" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="70">
+        <v>3</v>
+      </c>
+      <c r="H55" s="69">
+        <v>1</v>
+      </c>
+      <c r="I55" s="70">
+        <v>7</v>
+      </c>
+      <c r="M55" s="69">
+        <v>1</v>
+      </c>
+      <c r="N55" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="C56" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="70">
+        <v>0</v>
+      </c>
+      <c r="H56" s="69">
+        <v>2</v>
+      </c>
+      <c r="I56" s="70">
+        <v>9</v>
+      </c>
+      <c r="M56" s="69">
+        <v>2</v>
+      </c>
+      <c r="N56" s="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="C57" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="70">
+        <v>1</v>
+      </c>
+      <c r="H57" s="69">
+        <v>3</v>
+      </c>
+      <c r="I57" s="70">
+        <v>10</v>
+      </c>
+      <c r="M57" s="69">
+        <v>3</v>
+      </c>
+      <c r="N57" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="70">
+        <v>0</v>
+      </c>
+      <c r="H58" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="70">
+        <v>8.67</v>
+      </c>
+      <c r="M58" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="N58" s="70">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14">
+      <c r="D80" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="I80" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="N80" s="69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14">
+      <c r="C81" s="69">
+        <v>1</v>
+      </c>
+      <c r="D81" s="70">
+        <v>9</v>
+      </c>
+      <c r="H81" s="69">
+        <v>1</v>
+      </c>
+      <c r="I81" s="70">
+        <v>9</v>
+      </c>
+      <c r="M81" s="69">
+        <v>1</v>
+      </c>
+      <c r="N81" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14">
+      <c r="C82" s="69">
+        <v>2</v>
+      </c>
+      <c r="D82" s="70">
+        <v>8</v>
+      </c>
+      <c r="H82" s="69">
+        <v>2</v>
+      </c>
+      <c r="I82" s="70">
+        <v>8</v>
+      </c>
+      <c r="M82" s="69">
+        <v>2</v>
+      </c>
+      <c r="N82" s="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="69">
+        <v>3</v>
+      </c>
+      <c r="D83" s="70">
+        <v>10</v>
+      </c>
+      <c r="H83" s="69">
+        <v>3</v>
+      </c>
+      <c r="I83" s="70">
+        <v>9</v>
+      </c>
+      <c r="M83" s="69">
+        <v>3</v>
+      </c>
+      <c r="N83" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="C84" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="70">
+        <v>9</v>
+      </c>
+      <c r="H84" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" s="70">
+        <v>8.67</v>
+      </c>
+      <c r="M84" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="N84" s="70">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9">
+      <c r="D106" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="I106" s="69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9">
+      <c r="C107" s="69">
+        <v>1</v>
+      </c>
+      <c r="D107" s="70">
+        <v>9</v>
+      </c>
+      <c r="H107" s="69">
+        <v>1</v>
+      </c>
+      <c r="I107" s="70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9">
+      <c r="C108" s="69">
+        <v>2</v>
+      </c>
+      <c r="D108" s="70">
+        <v>8</v>
+      </c>
+      <c r="H108" s="69">
+        <v>2</v>
+      </c>
+      <c r="I108" s="70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9">
+      <c r="C109" s="69">
+        <v>3</v>
+      </c>
+      <c r="D109" s="70">
+        <v>10</v>
+      </c>
+      <c r="H109" s="69">
+        <v>3</v>
+      </c>
+      <c r="I109" s="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9">
+      <c r="C110" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="70">
+        <v>9</v>
+      </c>
+      <c r="H110" s="69" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="70">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
